--- a/Mid term/Mid term assignment.xlsx
+++ b/Mid term/Mid term assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vnlon\Documents\Mid term\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13320960-E8F5-4872-AA60-D48E24ABA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E973333D-9E98-438A-9D93-90D4B84858BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F15706E3-A278-4017-982F-0B52C3B1C9A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F15706E3-A278-4017-982F-0B52C3B1C9A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -84,42 +106,18 @@
     <t xml:space="preserve">Discounted Price </t>
   </si>
   <si>
-    <t>Verify that If the decimal value of the discounted price is greater than five , round to the nearest greater number</t>
-  </si>
-  <si>
-    <t>Verify that If the decimal value of the discounted price is smaller than five , round to the nearest smaller number</t>
-  </si>
-  <si>
-    <t>Verify that If the decimal value of the discounted price is equal to five , round to the nearest smaller number</t>
-  </si>
-  <si>
-    <t>The price will be rounded to the nearest greater number</t>
-  </si>
-  <si>
-    <t>The price will be rounded to the nearest smaller number</t>
-  </si>
-  <si>
     <t>Small Detail</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that if the original/discounted price is clickable </t>
   </si>
   <si>
-    <t>Verify that the formula for calculating the percentage of discount is correct</t>
-  </si>
-  <si>
     <t>The price is clickable</t>
   </si>
   <si>
-    <t>The discounted price musn't be wrong</t>
-  </si>
-  <si>
     <t>Verify that the number of images displayed must not be 0</t>
   </si>
   <si>
-    <t xml:space="preserve">The photo list must not be emty </t>
-  </si>
-  <si>
     <t>Photo list</t>
   </si>
   <si>
@@ -129,27 +127,9 @@
     <t>Verify that the number of images displayed in photos list is 5</t>
   </si>
   <si>
-    <t>Verify that the number of images displayed in photos list exceeds 5</t>
-  </si>
-  <si>
-    <t>The photo list must display at least one photo</t>
-  </si>
-  <si>
     <t>The photo list must display max 5 photos</t>
   </si>
   <si>
-    <t>The photo list can't display more than 5 photo but it still can have more picture when we click &gt;</t>
-  </si>
-  <si>
-    <t>&lt; &gt;</t>
-  </si>
-  <si>
-    <t>Verify that the "&lt;" button can be used to move to the previous/last picture when it is at the first photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the "&gt;" button can be used to move to the next photo </t>
-  </si>
-  <si>
     <t>Verify that the original file/discounted price will not use comma when its value is 0</t>
   </si>
   <si>
@@ -168,27 +148,12 @@
     <t>Verify that the original file/discounted price will use comma to separate group of million when its value is 999,999,999</t>
   </si>
   <si>
-    <t xml:space="preserve">Case 1 : The original file/discounted price don’t use comma  when its value is 0                                                                                                      Case 2 : The original file/discounted price use comma  when its value is 0                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 1 : The original file/discounted price use comma  when its value is in group of thousand,million                                                                                                    Case 2 : The original file/discounted price don't use comma  when its value is in group of thousand, million                                   Case 3 :The original file/discounted price use more than needed comma  when its value is in group of thousand    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on the "&lt;" button on the photos list field                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click on the "&gt;" button on the photos list field                         </t>
-  </si>
-  <si>
     <t>Big photo frame</t>
   </si>
   <si>
     <t>Verify that the first photo in the photo list is displayed on the big photo frame</t>
   </si>
   <si>
-    <t>The "&lt; &gt;" buttons can be use to change the next/previous picture in the photos list                            Case 1 :When the photos list is at the first photo , the "&lt;" button will be in disable mode but the "&gt;" button still can be used /                                           Case 2 :  When the photos list is at the last photo , the "&gt;" button will be in disable mode but the "&lt;" button still can be used</t>
-  </si>
-  <si>
     <t>Verify that when we use "&lt; " to change the picture display, the previous photo is displayed on the big photo frame</t>
   </si>
   <si>
@@ -201,14 +166,288 @@
     <t>Click on the photo on the photos list</t>
   </si>
   <si>
-    <t>The big photo frame can be change using "&lt; &gt;" or we can click on the photos in the photos list</t>
+    <t>The original file/discounted price use 0 comma when its value is 999</t>
+  </si>
+  <si>
+    <t>The original file/discounted price use 1 comma when its value is 1,000</t>
+  </si>
+  <si>
+    <t>The original file/discounted price use 1 comma when its value is 999,999</t>
+  </si>
+  <si>
+    <t>The original file/discounted price use 2 comma when its value is 1,000,000</t>
+  </si>
+  <si>
+    <t>The original file/discounted price use 2 comma when its value is 999,999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original file/discounted price don’t use comma  when its value is 0                                                                                                                    </t>
+  </si>
+  <si>
+    <t>Open the product screen with 0 photo</t>
+  </si>
+  <si>
+    <t>Open the product screen with 1 photo</t>
+  </si>
+  <si>
+    <t>Open the product screen with 5 photo</t>
+  </si>
+  <si>
+    <t>The photo list is emty and so the big photo frame</t>
+  </si>
+  <si>
+    <t>Open the product screen with more than 5 photo</t>
+  </si>
+  <si>
+    <t>Common Checklist</t>
+  </si>
+  <si>
+    <t>User Story 1</t>
+  </si>
+  <si>
+    <t>Run Test Dataset</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+  </si>
+  <si>
+    <t>Tested by</t>
+  </si>
+  <si>
+    <t>Test Date</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>Internal Build 03112011</t>
+  </si>
+  <si>
+    <t>Internal build 14112011</t>
+  </si>
+  <si>
+    <t>External build 16112011</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not Run</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Passed in previous build</t>
+  </si>
+  <si>
+    <t>1. Get access to Lazada Page 
+2. Click on a specific product to view</t>
+  </si>
+  <si>
+    <t>Nghiem Van Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Display Function </t>
+  </si>
+  <si>
+    <t>1. Get to product sceen
+2. Observe the price</t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is disable when there is 3 photo in the photo list</t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is disable when there is 5 photo in the photo list</t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is disable when there is 6 photo in the photo list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &lt; button is disable when there is 2 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &lt; button is disable when there is 1 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &lt; button is disabled when there is 0 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; </t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is disabled when there is 0 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is disabled when there is 1 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is enable when there is 3 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is enable when there is 5 photo in the photo list </t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is enable when there is 2 photo in the photo list</t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is enable when there is 3 photo in the photo list</t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is enable when there is 5 photo in the photo list</t>
+  </si>
+  <si>
+    <t>Verify the &lt; button is enable when there is 6 photo in the photo list</t>
+  </si>
+  <si>
+    <t>The &lt; button is disable</t>
+  </si>
+  <si>
+    <t>The &lt; button is enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is disable when there is 3 photo in the photo list </t>
+  </si>
+  <si>
+    <t>1. Click on the &gt; button till the 3rd photo
+2. Observe the button</t>
+  </si>
+  <si>
+    <t>The &gt; button is enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is disable when there is 5 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is disable when there is 6 photo in the photo list </t>
+  </si>
+  <si>
+    <t>1. Click on the &gt; button till the 5rd photo
+2. Observe the button</t>
+  </si>
+  <si>
+    <t>1. Click on the &gt; button till the 6rd photo
+2. Observe the button</t>
+  </si>
+  <si>
+    <t>Verify that the number of images displayed in photos list is 3</t>
+  </si>
+  <si>
+    <t>The photo list must display 3 photos</t>
+  </si>
+  <si>
+    <t>The photo list must display at least one photos</t>
+  </si>
+  <si>
+    <t>Verify that the number of images displayed in photos list is 6</t>
+  </si>
+  <si>
+    <t>Case 1 : When we click the &gt; button, the photos list will show 4 in the previous slide + the sixth photo
+Case 2 : When we click the &gt; button, the photo list will only show 1 picture aka the sixth photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is enable when there is 2 photo in the photo list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the &gt; button is enable when there is 6 photo in the photo list </t>
+  </si>
+  <si>
+    <t>1. Change the picture in the photo list
+2. Observe the button</t>
+  </si>
+  <si>
+    <t>Open the product screen with 3 photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Get to product sceen
+2. Observe the photo </t>
+  </si>
+  <si>
+    <t>The first photo is displayed on the big photo frame</t>
+  </si>
+  <si>
+    <t>The previous photo is displayed on the big photo frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Get to product sceen
+2. Use &gt; button to change the photo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Get to product sceen
+2. Use &lt; button to change the photo </t>
+  </si>
+  <si>
+    <t>The next photo is displayed on the big photo frame</t>
+  </si>
+  <si>
+    <t>The photo that we click is displayed on the big photo frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that If the decimal value of the discounted price is 1.9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that If the decimal value of the discounted price is 1.4  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the decimal value of the discounted price is 1.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the decimal value of the discounted price is 1.5 </t>
+  </si>
+  <si>
+    <t>Check the discounted rate when it is 0%</t>
+  </si>
+  <si>
+    <t>Check the discounted rate when it is 100%</t>
+  </si>
+  <si>
+    <t>Check the discounted rate when it is 50% and the decimal value of the discounted price is 10.5</t>
+  </si>
+  <si>
+    <t>Check the discounted rate when it is 50% and the decimal value of the discounted price is 10.9</t>
+  </si>
+  <si>
+    <t>Check the discounted rate when it is 50% and the decimal value of the discounted price is 10.4</t>
+  </si>
+  <si>
+    <t>Check the discounted rate when it is 50% and the decimal value of the discounted price is 10.0</t>
+  </si>
+  <si>
+    <t>The discounted price will be rounded to 2</t>
+  </si>
+  <si>
+    <t>The discounted price will be rounded to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The discounted price don’t change </t>
+  </si>
+  <si>
+    <t>The discounted price = 0</t>
+  </si>
+  <si>
+    <t>The discounted price will be rounded to 11</t>
+  </si>
+  <si>
+    <t>The discounted price will be rounded to 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,12 +515,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -304,14 +537,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF576BE3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,8 +606,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6D6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -480,16 +750,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,22 +771,7 @@
       <right style="thin">
         <color rgb="FFBFBFBF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -522,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -563,6 +820,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,86 +847,125 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -976,421 +1281,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B521B3-7623-48BC-ADDA-B66B86321C61}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="37.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="82.21875" customWidth="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1"/>
-    <col min="4" max="4" width="62.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="97.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="e" cm="1">
+        <f t="array" ref="A2">A2:E21ID</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+    <row r="4" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="33" t="s">
-        <v>44</v>
+      <c r="B5" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="61.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="35"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="29" t="s">
-        <v>18</v>
-      </c>
+    <row r="11" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="27" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="28" t="s">
-        <v>23</v>
+      <c r="B15" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
-        <v>8</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="28" t="s">
-        <v>24</v>
+    <row r="16" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
-        <v>9</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="28" t="s">
-        <v>26</v>
+    <row r="19" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+    <row r="20" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>9</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>8</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>10</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="B28" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>11</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="83.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>12</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="63"/>
+      <c r="D40" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="49.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="63"/>
+      <c r="D42" s="62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+    </row>
+    <row r="44" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>13</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="36"/>
+    </row>
+    <row r="46" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="36"/>
+    </row>
+    <row r="47" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>14</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+      <c r="B55" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+    </row>
+    <row r="56" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>15</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
+        <v>16</v>
+      </c>
+      <c r="B57" s="47" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
-        <v>11</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="31" t="s">
+      <c r="C57" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43">
+        <v>17</v>
+      </c>
+      <c r="B58" s="47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>12</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="31" t="s">
+      <c r="C58" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="43">
+        <v>18</v>
+      </c>
+      <c r="B59" s="47" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="22" t="s">
+      <c r="C59" s="47" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="126.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>13</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="44" t="s">
+      <c r="D59" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+    </row>
+    <row r="63" spans="1:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65" spans="2:5" ht="140.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>14</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
-        <v>15</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
-        <v>16</v>
-      </c>
-      <c r="B28" s="41" t="s">
+      <c r="C65" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="2:5" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="C66" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="30"/>
+    </row>
+    <row r="67" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="30"/>
+    </row>
+    <row r="68" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
+    </row>
+    <row r="69" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
-        <v>17</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
-        <v>18</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="36"/>
+      <c r="D69" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+    </row>
+    <row r="71" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+    </row>
+    <row r="72" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+    </row>
+    <row r="73" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+    </row>
+    <row r="74" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+    </row>
+    <row r="75" spans="2:5" ht="37.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D24:D25"/>
+  <mergeCells count="9">
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1404,18 +2197,18 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,19 +2234,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1467,7 +2260,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1479,7 +2272,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1491,7 +2284,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1503,7 +2296,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1515,7 +2308,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="73.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1527,7 +2320,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1539,19 +2332,19 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1565,7 +2358,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1579,37 +2372,37 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>16</v>
       </c>
